--- a/public/templeate-data.xlsx
+++ b/public/templeate-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\Project Prodi ilmu Komputer\Projectilkom\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76160ADC-2794-4F82-B7EE-4926F2F4697D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05D09C70-ED7C-4A7B-9B6A-625546C78AA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{52F398BB-CA30-49A3-8F06-E67F52D758F7}"/>
   </bookViews>
@@ -36,12 +36,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t>azizi</t>
-  </si>
-  <si>
-    <t>dading</t>
-  </si>
-  <si>
     <t>nidn</t>
   </si>
   <si>
@@ -49,6 +43,12 @@
   </si>
   <si>
     <t>nama</t>
+  </si>
+  <si>
+    <t>Ahmat Adil, S.Kom., M.Sc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	96.6.63</t>
   </si>
 </sst>
 </file>
@@ -427,55 +427,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4D9FBC6-A2BD-43CA-B99B-5D3D09CA9DC5}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="20.54296875" customWidth="1"/>
-    <col min="2" max="2" width="22.81640625" customWidth="1"/>
-    <col min="3" max="3" width="19.453125" customWidth="1"/>
+    <col min="2" max="2" width="24.6328125" customWidth="1"/>
+    <col min="3" max="3" width="35.36328125" customWidth="1"/>
     <col min="4" max="4" width="26.90625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
-        <v>435436436</v>
-      </c>
-      <c r="B2" s="2">
-        <v>7687796986</v>
+        <v>801127201</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="2">
-        <v>5668579</v>
-      </c>
-      <c r="B3" s="2">
-        <v>4386943868</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="D5" s="1"/>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D4" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
